--- a/excel/sku-initial.xlsx
+++ b/excel/sku-initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyongming/Documents/纯帮忙/进销存-晋辉/excel导入模版/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDAB79-2F35-3D46-8CFA-9148BAE3B458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF358710-E457-C447-B502-7C6DE354CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="8700" windowWidth="27840" windowHeight="16940" xr2:uid="{2E21EDE9-8B7F-E341-9456-BCC214C60F0C}"/>
+    <workbookView xWindow="5220" yWindow="6140" windowWidth="27840" windowHeight="16940" xr2:uid="{2E21EDE9-8B7F-E341-9456-BCC214C60F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
